--- a/hiscore.xlsx
+++ b/hiscore.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Namn</t>
   </si>
@@ -40,40 +40,7 @@
     <t>Flexmatic</t>
   </si>
   <si>
-    <t>Åsa Johansson</t>
-  </si>
-  <si>
-    <t>swelogan@gmail.com</t>
-  </si>
-  <si>
-    <t>Nordea</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>swelogan2@gmail.com</t>
-  </si>
-  <si>
-    <t>0704562745</t>
-  </si>
-  <si>
-    <t>Gert Andersson</t>
-  </si>
-  <si>
-    <t>asd@asd.com</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>kalle</t>
-  </si>
-  <si>
-    <t>gert.johansson@outlook.com</t>
-  </si>
-  <si>
-    <t>krister.johansson@outlook.com</t>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -450,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -470,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -484,80 +451,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1000</v>
+      <c r="E4">
+        <v>1337</v>
       </c>
     </row>
   </sheetData>
